--- a/data2/mean_var50.xlsx
+++ b/data2/mean_var50.xlsx
@@ -457,10 +457,10 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>0.004791757064523466</v>
+        <v>0.004791757726395753</v>
       </c>
       <c r="C2" t="n">
-        <v>0.000781303509927291</v>
+        <v>0.0007813039001524819</v>
       </c>
     </row>
     <row r="3">
@@ -470,10 +470,10 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0.0006086465917303407</v>
+        <v>0.000608646277943711</v>
       </c>
       <c r="C3" t="n">
-        <v>0.0002040843815557264</v>
+        <v>0.0002040837046817845</v>
       </c>
     </row>
     <row r="4">
@@ -492,66 +492,66 @@
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>AVGO</t>
+          <t>META</t>
         </is>
       </c>
       <c r="B5" t="n">
-        <v>0.0009251801536966433</v>
+        <v>0.0004710739231839039</v>
       </c>
       <c r="C5" t="n">
-        <v>0.0003493146978488911</v>
+        <v>0.0003049396500722201</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>ASML</t>
+          <t>AVGO</t>
         </is>
       </c>
       <c r="B6" t="n">
-        <v>0.00104681465125513</v>
+        <v>0.0009251793916008272</v>
       </c>
       <c r="C6" t="n">
-        <v>0.0002793061297843101</v>
+        <v>0.0003493147409145823</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>TMUS</t>
+          <t>ASML</t>
         </is>
       </c>
       <c r="B7" t="n">
-        <v>0.001552509705759676</v>
+        <v>0.001046814651255135</v>
       </c>
       <c r="C7" t="n">
-        <v>0.0003080523232319883</v>
+        <v>0.0002793057785124484</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>PEP</t>
+          <t>NFLX</t>
         </is>
       </c>
       <c r="B8" t="n">
-        <v>0.0003452033283062954</v>
+        <v>0.0004723136650604035</v>
       </c>
       <c r="C8" t="n">
-        <v>7.198381845562408e-05</v>
+        <v>0.0007794481906094764</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>LIN</t>
+          <t>TMUS</t>
         </is>
       </c>
       <c r="B9" t="n">
-        <v>0.0006712541210374818</v>
+        <v>0.001552509833639477</v>
       </c>
       <c r="C9" t="n">
-        <v>0.0001385908476279712</v>
+        <v>0.0003080525190485758</v>
       </c>
     </row>
     <row r="10">
@@ -574,10 +574,10 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>0.0006420888779063945</v>
+        <v>0.0006420875880178026</v>
       </c>
       <c r="C11" t="n">
-        <v>0.0001811547783800865</v>
+        <v>0.0001811539506805654</v>
       </c>
     </row>
     <row r="12">
@@ -587,10 +587,10 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>0.00118796384579611</v>
+        <v>0.001187964627932078</v>
       </c>
       <c r="C12" t="n">
-        <v>0.0003132064297257861</v>
+        <v>0.0003132064104617103</v>
       </c>
     </row>
     <row r="13">
@@ -600,10 +600,10 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>0.001280133347426345</v>
+        <v>0.001280131901946855</v>
       </c>
       <c r="C13" t="n">
-        <v>0.0001753738572009153</v>
+        <v>0.0001753747607148026</v>
       </c>
     </row>
     <row r="14">
@@ -613,10 +613,10 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>0.0008204260966541673</v>
+        <v>0.0008204261379338005</v>
       </c>
       <c r="C14" t="n">
-        <v>0.0001541022897302211</v>
+        <v>0.0001541026309202054</v>
       </c>
     </row>
     <row r="15">
@@ -639,465 +639,465 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>0.002288413830975243</v>
+        <v>0.002288414744028531</v>
       </c>
       <c r="C16" t="n">
-        <v>0.0003758883918143643</v>
+        <v>0.0003758874907965164</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="inlineStr">
         <is>
-          <t>CMCSA</t>
+          <t>BKNG</t>
         </is>
       </c>
       <c r="B17" t="n">
-        <v>0.0009270748038564562</v>
+        <v>0.0006499838885816938</v>
       </c>
       <c r="C17" t="n">
-        <v>0.000114459557341981</v>
+        <v>0.0003507276499620088</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="inlineStr">
         <is>
-          <t>HON</t>
+          <t>ADI</t>
         </is>
       </c>
       <c r="B18" t="n">
-        <v>0.0005934719437981652</v>
+        <v>0.001258298230554382</v>
       </c>
       <c r="C18" t="n">
-        <v>0.0001256384351955858</v>
+        <v>0.0002204926327720668</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="inlineStr">
         <is>
-          <t>ADP</t>
+          <t>LRCX</t>
         </is>
       </c>
       <c r="B19" t="n">
-        <v>0.0009929382738462311</v>
+        <v>0.001554779270507288</v>
       </c>
       <c r="C19" t="n">
-        <v>0.0001108292658202764</v>
+        <v>0.0003175188223807012</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="inlineStr">
         <is>
-          <t>ADI</t>
+          <t>KLAC</t>
         </is>
       </c>
       <c r="B20" t="n">
-        <v>0.001258297196007891</v>
+        <v>0.0006617849538736269</v>
       </c>
       <c r="C20" t="n">
-        <v>0.0002204923523310186</v>
+        <v>0.000176377742102125</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="inlineStr">
         <is>
-          <t>KLAC</t>
+          <t>MELI</t>
         </is>
       </c>
       <c r="B21" t="n">
-        <v>0.0006617843299393226</v>
+        <v>0.001414183280644268</v>
       </c>
       <c r="C21" t="n">
-        <v>0.0001763766165138962</v>
+        <v>0.0005015673650968572</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="inlineStr">
         <is>
-          <t>LRCX</t>
+          <t>INTC</t>
         </is>
       </c>
       <c r="B22" t="n">
-        <v>0.001418680440532165</v>
+        <v>0.0003879786706433413</v>
       </c>
       <c r="C22" t="n">
-        <v>0.0003013936562055045</v>
+        <v>0.0002042997220563958</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" t="inlineStr">
         <is>
-          <t>MELI</t>
+          <t>MDLZ</t>
         </is>
       </c>
       <c r="B23" t="n">
-        <v>0.001414183670894209</v>
+        <v>0.0001168621770919631</v>
       </c>
       <c r="C23" t="n">
-        <v>0.0005015671580447068</v>
+        <v>0.0002846239921258829</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" t="inlineStr">
         <is>
-          <t>INTC</t>
+          <t>CTAS</t>
         </is>
       </c>
       <c r="B24" t="n">
-        <v>0.0003879791839093986</v>
+        <v>0.001280820366687428</v>
       </c>
       <c r="C24" t="n">
-        <v>0.0002043002371787759</v>
+        <v>0.0001526327418421319</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" t="inlineStr">
         <is>
-          <t>CTAS</t>
+          <t>PYPL</t>
         </is>
       </c>
       <c r="B25" t="n">
-        <v>0.001123463416944211</v>
+        <v>0.0005074157314395192</v>
       </c>
       <c r="C25" t="n">
-        <v>0.0001482041413653911</v>
+        <v>0.0003085645244898223</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" t="inlineStr">
         <is>
-          <t>SNPS</t>
+          <t>CDNS</t>
         </is>
       </c>
       <c r="B26" t="n">
-        <v>0.001076807426562563</v>
+        <v>0.0008197212702539602</v>
       </c>
       <c r="C26" t="n">
-        <v>0.0001280042808616382</v>
+        <v>0.0001863887235630029</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" t="inlineStr">
         <is>
-          <t>CDNS</t>
+          <t>MAR</t>
         </is>
       </c>
       <c r="B27" t="n">
-        <v>0.0008197212702539602</v>
+        <v>0.001000704087030286</v>
       </c>
       <c r="C27" t="n">
-        <v>0.0001863887235630029</v>
+        <v>0.0002465631699095578</v>
       </c>
     </row>
     <row r="28">
       <c r="A28" t="inlineStr">
         <is>
-          <t>MAR</t>
+          <t>ORLY</t>
         </is>
       </c>
       <c r="B28" t="n">
-        <v>0.001000705800113524</v>
+        <v>0.0004912998707925285</v>
       </c>
       <c r="C28" t="n">
-        <v>0.0002465625177459078</v>
+        <v>0.0001940518589709693</v>
       </c>
     </row>
     <row r="29">
       <c r="A29" t="inlineStr">
         <is>
-          <t>ORLY</t>
+          <t>CSX</t>
         </is>
       </c>
       <c r="B29" t="n">
-        <v>0.0004912998707925285</v>
+        <v>0.001424263413040009</v>
       </c>
       <c r="C29" t="n">
-        <v>0.0001940518589709693</v>
+        <v>0.0002638560309284628</v>
       </c>
     </row>
     <row r="30">
       <c r="A30" t="inlineStr">
         <is>
-          <t>CSX</t>
+          <t>MRVL</t>
         </is>
       </c>
       <c r="B30" t="n">
-        <v>0.001424262709251114</v>
+        <v>0.001894871010761541</v>
       </c>
       <c r="C30" t="n">
-        <v>0.0002638559550257221</v>
+        <v>0.0005145473683505556</v>
       </c>
     </row>
     <row r="31">
       <c r="A31" t="inlineStr">
         <is>
-          <t>MRVL</t>
+          <t>NXPI</t>
         </is>
       </c>
       <c r="B31" t="n">
-        <v>0.001894871996017122</v>
+        <v>0.0005937381103851151</v>
       </c>
       <c r="C31" t="n">
-        <v>0.0005145467722323421</v>
+        <v>0.0005494577051172493</v>
       </c>
     </row>
     <row r="32">
       <c r="A32" t="inlineStr">
         <is>
-          <t>FANG</t>
+          <t>ADSK</t>
         </is>
       </c>
       <c r="B32" t="n">
-        <v>0.001690815033646858</v>
+        <v>0.0008155470033467038</v>
       </c>
       <c r="C32" t="n">
-        <v>0.0006042657338384508</v>
+        <v>0.0004951955484797176</v>
       </c>
     </row>
     <row r="33">
       <c r="A33" t="inlineStr">
         <is>
-          <t>PCAR</t>
+          <t>FANG</t>
         </is>
       </c>
       <c r="B33" t="n">
-        <v>0.001314376673720907</v>
+        <v>0.001690814103568938</v>
       </c>
       <c r="C33" t="n">
-        <v>0.000261005433103709</v>
+        <v>0.0006042643448072175</v>
       </c>
     </row>
     <row r="34">
       <c r="A34" t="inlineStr">
         <is>
-          <t>AEP</t>
+          <t>PCAR</t>
         </is>
       </c>
       <c r="B34" t="n">
-        <v>0.0004447332685213867</v>
+        <v>0.001314377003276264</v>
       </c>
       <c r="C34" t="n">
-        <v>0.0001255337589190014</v>
+        <v>0.0002610052993351169</v>
       </c>
     </row>
     <row r="35">
       <c r="A35" t="inlineStr">
         <is>
-          <t>CHTR</t>
+          <t>CPRT</t>
         </is>
       </c>
       <c r="B35" t="n">
-        <v>0.001926466567988601</v>
+        <v>0.001537434689359692</v>
       </c>
       <c r="C35" t="n">
-        <v>0.000344220960380733</v>
+        <v>0.000184575384017428</v>
       </c>
     </row>
     <row r="36">
       <c r="A36" t="inlineStr">
         <is>
-          <t>CPRT</t>
+          <t>CHTR</t>
         </is>
       </c>
       <c r="B36" t="n">
-        <v>0.001537434689359692</v>
+        <v>0.001926466567988601</v>
       </c>
       <c r="C36" t="n">
-        <v>0.000184575384017428</v>
+        <v>0.000344220960380733</v>
       </c>
     </row>
     <row r="37">
       <c r="A37" t="inlineStr">
         <is>
-          <t>PAYX</t>
+          <t>ROST</t>
         </is>
       </c>
       <c r="B37" t="n">
-        <v>0.0007944872947181368</v>
+        <v>0.0007842419758300012</v>
       </c>
       <c r="C37" t="n">
-        <v>0.0001267025728627172</v>
+        <v>0.0001762896607575369</v>
       </c>
     </row>
     <row r="38">
       <c r="A38" t="inlineStr">
         <is>
-          <t>ROST</t>
+          <t>FAST</t>
         </is>
       </c>
       <c r="B38" t="n">
-        <v>0.0007842439428708786</v>
+        <v>0.0007393852622347126</v>
       </c>
       <c r="C38" t="n">
-        <v>0.0001762896724642949</v>
+        <v>0.000237101092428346</v>
       </c>
     </row>
     <row r="39">
       <c r="A39" t="inlineStr">
         <is>
-          <t>KHC</t>
+          <t>ODFL</t>
         </is>
       </c>
       <c r="B39" t="n">
-        <v>0.0008422566985826722</v>
+        <v>0.001530852491970737</v>
       </c>
       <c r="C39" t="n">
-        <v>0.0001654458669554324</v>
+        <v>0.000284365347228002</v>
       </c>
     </row>
     <row r="40">
       <c r="A40" t="inlineStr">
         <is>
-          <t>MCHP</t>
+          <t>KHC</t>
         </is>
       </c>
       <c r="B40" t="n">
-        <v>0.001435790872162611</v>
+        <v>0.0008422548716767359</v>
       </c>
       <c r="C40" t="n">
-        <v>0.0002541682553790211</v>
+        <v>0.0001654461098804011</v>
       </c>
     </row>
     <row r="41">
       <c r="A41" t="inlineStr">
         <is>
-          <t>ODFL</t>
+          <t>MCHP</t>
         </is>
       </c>
       <c r="B41" t="n">
-        <v>0.001530852620385067</v>
+        <v>0.001435790485856591</v>
       </c>
       <c r="C41" t="n">
-        <v>0.0002843659447858218</v>
+        <v>0.0002541671089951331</v>
       </c>
     </row>
     <row r="42">
       <c r="A42" t="inlineStr">
         <is>
-          <t>FAST</t>
+          <t>EXC</t>
         </is>
       </c>
       <c r="B42" t="n">
-        <v>0.0007393845414575935</v>
+        <v>0.001099212824391787</v>
       </c>
       <c r="C42" t="n">
-        <v>0.0002371016430728639</v>
+        <v>0.0001990675577491658</v>
       </c>
     </row>
     <row r="43">
       <c r="A43" t="inlineStr">
         <is>
-          <t>EXC</t>
+          <t>IDXX</t>
         </is>
       </c>
       <c r="B43" t="n">
-        <v>0.001099213610026367</v>
+        <v>0.001992471354671958</v>
       </c>
       <c r="C43" t="n">
-        <v>0.0001990674293635316</v>
+        <v>0.0002545243446573122</v>
       </c>
     </row>
     <row r="44">
       <c r="A44" t="inlineStr">
         <is>
-          <t>IDXX</t>
+          <t>EA</t>
         </is>
       </c>
       <c r="B44" t="n">
-        <v>0.001992471354671958</v>
+        <v>0.0006981535920071758</v>
       </c>
       <c r="C44" t="n">
-        <v>0.0002545243446573122</v>
+        <v>0.0003375210087248839</v>
       </c>
     </row>
     <row r="45">
       <c r="A45" t="inlineStr">
         <is>
-          <t>VRSK</t>
+          <t>BKR</t>
         </is>
       </c>
       <c r="B45" t="n">
-        <v>0.0002990654817915954</v>
+        <v>0.001325896358313684</v>
       </c>
       <c r="C45" t="n">
-        <v>0.0001148204025634927</v>
+        <v>0.0006030836269188352</v>
       </c>
     </row>
     <row r="46">
       <c r="A46" t="inlineStr">
         <is>
-          <t>EA</t>
+          <t>LULU</t>
         </is>
       </c>
       <c r="B46" t="n">
-        <v>0.0006981527272676755</v>
+        <v>0.0006031267234766266</v>
       </c>
       <c r="C46" t="n">
-        <v>0.0003375213286778599</v>
+        <v>0.0004333103936674401</v>
       </c>
     </row>
     <row r="47">
       <c r="A47" t="inlineStr">
         <is>
-          <t>BKR</t>
+          <t>ON</t>
         </is>
       </c>
       <c r="B47" t="n">
-        <v>0.001325893987408093</v>
+        <v>0.001092388167363118</v>
       </c>
       <c r="C47" t="n">
-        <v>0.0006030842399105992</v>
+        <v>0.000550360317496639</v>
       </c>
     </row>
     <row r="48">
       <c r="A48" t="inlineStr">
         <is>
-          <t>XEL</t>
+          <t>CDW</t>
         </is>
       </c>
       <c r="B48" t="n">
-        <v>0.0006535418478616922</v>
+        <v>0.001001691522343329</v>
       </c>
       <c r="C48" t="n">
-        <v>0.000123123803756521</v>
+        <v>0.0002214376871376766</v>
       </c>
     </row>
     <row r="49">
       <c r="A49" t="inlineStr">
         <is>
-          <t>ON</t>
+          <t>ANSS</t>
         </is>
       </c>
       <c r="B49" t="n">
-        <v>0.001092388167363118</v>
+        <v>0.0001043042222724664</v>
       </c>
       <c r="C49" t="n">
-        <v>0.000550360317496639</v>
+        <v>0.0001849204827783185</v>
       </c>
     </row>
     <row r="50">
       <c r="A50" t="inlineStr">
         <is>
-          <t>CDW</t>
+          <t>TTWO</t>
         </is>
       </c>
       <c r="B50" t="n">
-        <v>0.001001692569308007</v>
+        <v>0.001459654289844646</v>
       </c>
       <c r="C50" t="n">
-        <v>0.0002214382277020203</v>
+        <v>0.0003452783591290246</v>
       </c>
     </row>
     <row r="51">
       <c r="A51" t="inlineStr">
         <is>
-          <t>TTWO</t>
+          <t>WBD</t>
         </is>
       </c>
       <c r="B51" t="n">
-        <v>0.001459654289844646</v>
+        <v>0.0001480684630137092</v>
       </c>
       <c r="C51" t="n">
-        <v>0.0003452783591290246</v>
+        <v>0.0003878133136819219</v>
       </c>
     </row>
   </sheetData>

--- a/data2/mean_var50.xlsx
+++ b/data2/mean_var50.xlsx
@@ -457,10 +457,10 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>0.004791757726395753</v>
+        <v>0.00479175694336796</v>
       </c>
       <c r="C2" t="n">
-        <v>0.0007813039001524819</v>
+        <v>0.0007813033556760727</v>
       </c>
     </row>
     <row r="3">
@@ -470,10 +470,10 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0.000608646277943711</v>
+        <v>0.0006086454254940342</v>
       </c>
       <c r="C3" t="n">
-        <v>0.0002040837046817845</v>
+        <v>0.0002040837586865453</v>
       </c>
     </row>
     <row r="4">
@@ -496,10 +496,10 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>0.0004710739231839039</v>
+        <v>0.0004710736249300026</v>
       </c>
       <c r="C5" t="n">
-        <v>0.0003049396500722201</v>
+        <v>0.0003049394305589464</v>
       </c>
     </row>
     <row r="6">
@@ -509,10 +509,10 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>0.0009251793916008272</v>
+        <v>0.0009251801536966415</v>
       </c>
       <c r="C6" t="n">
-        <v>0.0003493147409145823</v>
+        <v>0.0003493150197259198</v>
       </c>
     </row>
     <row r="7">
@@ -522,10 +522,10 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>0.001046814651255135</v>
+        <v>0.001046814358538758</v>
       </c>
       <c r="C7" t="n">
-        <v>0.0002793057785124484</v>
+        <v>0.0002793061552063483</v>
       </c>
     </row>
     <row r="8">
@@ -548,10 +548,10 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>0.001552509833639477</v>
+        <v>0.001552510766624936</v>
       </c>
       <c r="C9" t="n">
-        <v>0.0003080525190485758</v>
+        <v>0.0003080523754253228</v>
       </c>
     </row>
     <row r="10">
@@ -574,10 +574,10 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>0.0006420875880178026</v>
+        <v>0.0006420878540967865</v>
       </c>
       <c r="C11" t="n">
-        <v>0.0001811539506805654</v>
+        <v>0.0001811538503930647</v>
       </c>
     </row>
     <row r="12">
@@ -587,10 +587,10 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>0.001187964627932078</v>
+        <v>0.001187964236864084</v>
       </c>
       <c r="C12" t="n">
-        <v>0.0003132064104617103</v>
+        <v>0.0003132062073119949</v>
       </c>
     </row>
     <row r="13">
@@ -600,10 +600,10 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>0.001280131901946855</v>
+        <v>0.001280133222899704</v>
       </c>
       <c r="C13" t="n">
-        <v>0.0001753747607148026</v>
+        <v>0.0001753738237623097</v>
       </c>
     </row>
     <row r="14">
@@ -613,10 +613,10 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>0.0008204261379338005</v>
+        <v>0.0008204280855021611</v>
       </c>
       <c r="C14" t="n">
-        <v>0.0001541026309202054</v>
+        <v>0.0001541020240275119</v>
       </c>
     </row>
     <row r="15">
@@ -639,10 +639,10 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>0.002288414744028531</v>
+        <v>0.002288414345067223</v>
       </c>
       <c r="C16" t="n">
-        <v>0.0003758874907965164</v>
+        <v>0.0003758881336930636</v>
       </c>
     </row>
     <row r="17">
@@ -652,10 +652,10 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>0.0006499838885816938</v>
+        <v>0.0006499835544643284</v>
       </c>
       <c r="C17" t="n">
-        <v>0.0003507276499620088</v>
+        <v>0.0003507270993650239</v>
       </c>
     </row>
     <row r="18">
@@ -665,36 +665,36 @@
         </is>
       </c>
       <c r="B18" t="n">
-        <v>0.001258298230554382</v>
+        <v>0.00125829719600789</v>
       </c>
       <c r="C18" t="n">
-        <v>0.0002204926327720668</v>
+        <v>0.0002204925230524289</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="inlineStr">
         <is>
-          <t>LRCX</t>
+          <t>KLAC</t>
         </is>
       </c>
       <c r="B19" t="n">
-        <v>0.001554779270507288</v>
+        <v>0.0006617829221084279</v>
       </c>
       <c r="C19" t="n">
-        <v>0.0003175188223807012</v>
+        <v>0.000176376088215248</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="inlineStr">
         <is>
-          <t>KLAC</t>
+          <t>LRCX</t>
         </is>
       </c>
       <c r="B20" t="n">
-        <v>0.0006617849538736269</v>
+        <v>0.001554779563702869</v>
       </c>
       <c r="C20" t="n">
-        <v>0.000176377742102125</v>
+        <v>0.0003175193210789412</v>
       </c>
     </row>
     <row r="21">
@@ -704,10 +704,10 @@
         </is>
       </c>
       <c r="B21" t="n">
-        <v>0.001414183280644268</v>
+        <v>0.001414183280644267</v>
       </c>
       <c r="C21" t="n">
-        <v>0.0005015673650968572</v>
+        <v>0.0005015673941555149</v>
       </c>
     </row>
     <row r="22">
@@ -717,10 +717,10 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>0.0003879786706433413</v>
+        <v>0.0003879782098750859</v>
       </c>
       <c r="C22" t="n">
-        <v>0.0002042997220563958</v>
+        <v>0.0002043001595252609</v>
       </c>
     </row>
     <row r="23">
@@ -730,10 +730,10 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>0.0001168621770919631</v>
+        <v>0.0001168588582013153</v>
       </c>
       <c r="C23" t="n">
-        <v>0.0002846239921258829</v>
+        <v>0.0002846222666673385</v>
       </c>
     </row>
     <row r="24">
@@ -743,10 +743,10 @@
         </is>
       </c>
       <c r="B24" t="n">
-        <v>0.001280820366687428</v>
+        <v>0.001123462986331379</v>
       </c>
       <c r="C24" t="n">
-        <v>0.0001526327418421319</v>
+        <v>0.0001482042936250954</v>
       </c>
     </row>
     <row r="25">
@@ -782,10 +782,10 @@
         </is>
       </c>
       <c r="B27" t="n">
-        <v>0.001000704087030286</v>
+        <v>0.001000704480189036</v>
       </c>
       <c r="C27" t="n">
-        <v>0.0002465631699095578</v>
+        <v>0.0002465623751987243</v>
       </c>
     </row>
     <row r="28">
@@ -808,10 +808,10 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>0.001424263413040009</v>
+        <v>0.001424263061145577</v>
       </c>
       <c r="C29" t="n">
-        <v>0.0002638560309284628</v>
+        <v>0.0002638551557026518</v>
       </c>
     </row>
     <row r="30">
@@ -821,10 +821,10 @@
         </is>
       </c>
       <c r="B30" t="n">
-        <v>0.001894871010761541</v>
+        <v>0.001894873062647172</v>
       </c>
       <c r="C30" t="n">
-        <v>0.0005145473683505556</v>
+        <v>0.0005145457210963086</v>
       </c>
     </row>
     <row r="31">
@@ -834,10 +834,10 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>0.0005937381103851151</v>
+        <v>0.0005937376049807588</v>
       </c>
       <c r="C31" t="n">
-        <v>0.0005494577051172493</v>
+        <v>0.0005494582061977875</v>
       </c>
     </row>
     <row r="32">
@@ -860,10 +860,10 @@
         </is>
       </c>
       <c r="B33" t="n">
-        <v>0.001690814103568938</v>
+        <v>0.00169081485626156</v>
       </c>
       <c r="C33" t="n">
-        <v>0.0006042643448072175</v>
+        <v>0.000604266820927395</v>
       </c>
     </row>
     <row r="34">
@@ -873,10 +873,10 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>0.001314377003276264</v>
+        <v>0.001314378569295074</v>
       </c>
       <c r="C34" t="n">
-        <v>0.0002610052993351169</v>
+        <v>0.0002610041822566004</v>
       </c>
     </row>
     <row r="35">
@@ -912,10 +912,10 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>0.0007842419758300012</v>
+        <v>0.0007842420845790778</v>
       </c>
       <c r="C37" t="n">
-        <v>0.0001762896607575369</v>
+        <v>0.0001762900285627821</v>
       </c>
     </row>
     <row r="38">
@@ -925,10 +925,10 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>0.0007393852622347126</v>
+        <v>0.0007393827821678647</v>
       </c>
       <c r="C38" t="n">
-        <v>0.000237101092428346</v>
+        <v>0.0002371016388306028</v>
       </c>
     </row>
     <row r="39">
@@ -938,10 +938,10 @@
         </is>
       </c>
       <c r="B39" t="n">
-        <v>0.001530852491970737</v>
+        <v>0.001530855069970332</v>
       </c>
       <c r="C39" t="n">
-        <v>0.000284365347228002</v>
+        <v>0.000284365456545301</v>
       </c>
     </row>
     <row r="40">
@@ -951,10 +951,10 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>0.0008422548716767359</v>
+        <v>0.000842256324641236</v>
       </c>
       <c r="C40" t="n">
-        <v>0.0001654461098804011</v>
+        <v>0.0001654459502616318</v>
       </c>
     </row>
     <row r="41">
@@ -964,10 +964,10 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>0.001435790485856591</v>
+        <v>0.001435790099550612</v>
       </c>
       <c r="C41" t="n">
-        <v>0.0002541671089951331</v>
+        <v>0.0002541677978398323</v>
       </c>
     </row>
     <row r="42">
@@ -977,10 +977,10 @@
         </is>
       </c>
       <c r="B42" t="n">
-        <v>0.001099212824391787</v>
+        <v>0.001099211779945579</v>
       </c>
       <c r="C42" t="n">
-        <v>0.0001990675577491658</v>
+        <v>0.0001990675472940608</v>
       </c>
     </row>
     <row r="43">
@@ -1003,10 +1003,10 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>0.0006981535920071758</v>
+        <v>0.0006981536675808673</v>
       </c>
       <c r="C44" t="n">
-        <v>0.0003375210087248839</v>
+        <v>0.0003375212445890138</v>
       </c>
     </row>
     <row r="45">
@@ -1016,10 +1016,10 @@
         </is>
       </c>
       <c r="B45" t="n">
-        <v>0.001325896358313684</v>
+        <v>0.001325893948998274</v>
       </c>
       <c r="C45" t="n">
-        <v>0.0006030836269188352</v>
+        <v>0.0006030848188436064</v>
       </c>
     </row>
     <row r="46">
@@ -1055,10 +1055,10 @@
         </is>
       </c>
       <c r="B48" t="n">
-        <v>0.001001691522343329</v>
+        <v>0.001001692569308013</v>
       </c>
       <c r="C48" t="n">
-        <v>0.0002214376871376766</v>
+        <v>0.0002214390720581215</v>
       </c>
     </row>
     <row r="49">

--- a/data2/mean_var50.xlsx
+++ b/data2/mean_var50.xlsx
@@ -457,10 +457,10 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>0.00479175694336796</v>
+        <v>0.004791757665818062</v>
       </c>
       <c r="C2" t="n">
-        <v>0.0007813033556760727</v>
+        <v>0.0007813032928621058</v>
       </c>
     </row>
     <row r="3">
@@ -470,10 +470,10 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0.0006086454254940342</v>
+        <v>0.000608645605915446</v>
       </c>
       <c r="C3" t="n">
-        <v>0.0002040837586865453</v>
+        <v>0.0002040837857321601</v>
       </c>
     </row>
     <row r="4">
@@ -496,10 +496,10 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>0.0004710736249300026</v>
+        <v>0.0004710736249300006</v>
       </c>
       <c r="C5" t="n">
-        <v>0.0003049394305589464</v>
+        <v>0.0003049393018863124</v>
       </c>
     </row>
     <row r="6">
@@ -509,10 +509,10 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>0.0009251801536966415</v>
+        <v>0.0009251791894286707</v>
       </c>
       <c r="C6" t="n">
-        <v>0.0003493150197259198</v>
+        <v>0.0003493141629322204</v>
       </c>
     </row>
     <row r="7">
@@ -522,10 +522,10 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>0.001046814358538758</v>
+        <v>0.001046814563293233</v>
       </c>
       <c r="C7" t="n">
-        <v>0.0002793061552063483</v>
+        <v>0.0002793053719548725</v>
       </c>
     </row>
     <row r="8">
@@ -548,10 +548,10 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>0.001552510766624936</v>
+        <v>0.001552510498256412</v>
       </c>
       <c r="C9" t="n">
-        <v>0.0003080523754253228</v>
+        <v>0.0003080523236351159</v>
       </c>
     </row>
     <row r="10">
@@ -574,10 +574,10 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>0.0006420878540967865</v>
+        <v>0.0006420875316246322</v>
       </c>
       <c r="C11" t="n">
-        <v>0.0001811538503930647</v>
+        <v>0.0001811537438775771</v>
       </c>
     </row>
     <row r="12">
@@ -587,10 +587,10 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>0.001187964236864084</v>
+        <v>0.001187964728761791</v>
       </c>
       <c r="C12" t="n">
-        <v>0.0003132062073119949</v>
+        <v>0.0003132059667956394</v>
       </c>
     </row>
     <row r="13">
@@ -600,10 +600,10 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>0.001280133222899704</v>
+        <v>0.001280133834653497</v>
       </c>
       <c r="C13" t="n">
-        <v>0.0001753738237623097</v>
+        <v>0.0001753743963529469</v>
       </c>
     </row>
     <row r="14">
@@ -613,10 +613,10 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>0.0008204280855021611</v>
+        <v>0.0008204271761229281</v>
       </c>
       <c r="C14" t="n">
-        <v>0.0001541020240275119</v>
+        <v>0.0001541017881535345</v>
       </c>
     </row>
     <row r="15">
@@ -639,10 +639,10 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>0.002288414345067223</v>
+        <v>0.002288414088021248</v>
       </c>
       <c r="C16" t="n">
-        <v>0.0003758881336930636</v>
+        <v>0.0003758880376423061</v>
       </c>
     </row>
     <row r="17">
@@ -665,10 +665,10 @@
         </is>
       </c>
       <c r="B18" t="n">
-        <v>0.00125829719600789</v>
+        <v>0.001258296952996726</v>
       </c>
       <c r="C18" t="n">
-        <v>0.0002204925230524289</v>
+        <v>0.0002204923429305079</v>
       </c>
     </row>
     <row r="19">
@@ -678,10 +678,10 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>0.0006617829221084279</v>
+        <v>0.0006617827407904939</v>
       </c>
       <c r="C19" t="n">
-        <v>0.000176376088215248</v>
+        <v>0.0001763773517259716</v>
       </c>
     </row>
     <row r="20">
@@ -691,10 +691,10 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>0.001554779563702869</v>
+        <v>0.001566700094702903</v>
       </c>
       <c r="C20" t="n">
-        <v>0.0003175193210789412</v>
+        <v>0.0003104625081012702</v>
       </c>
     </row>
     <row r="21">
@@ -704,10 +704,10 @@
         </is>
       </c>
       <c r="B21" t="n">
-        <v>0.001414183280644267</v>
+        <v>0.001414183949166552</v>
       </c>
       <c r="C21" t="n">
-        <v>0.0005015673941555149</v>
+        <v>0.0005015674530076113</v>
       </c>
     </row>
     <row r="22">
@@ -717,10 +717,10 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>0.0003879782098750859</v>
+        <v>0.000387980598319661</v>
       </c>
       <c r="C22" t="n">
-        <v>0.0002043001595252609</v>
+        <v>0.0002042996436444955</v>
       </c>
     </row>
     <row r="23">
@@ -730,10 +730,10 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>0.0001168588582013153</v>
+        <v>0.0001168592776088303</v>
       </c>
       <c r="C23" t="n">
-        <v>0.0002846222666673385</v>
+        <v>0.000284622802170424</v>
       </c>
     </row>
     <row r="24">
@@ -743,10 +743,10 @@
         </is>
       </c>
       <c r="B24" t="n">
-        <v>0.001123462986331379</v>
+        <v>0.00128081856973723</v>
       </c>
       <c r="C24" t="n">
-        <v>0.0001482042936250954</v>
+        <v>0.0001526322847375969</v>
       </c>
     </row>
     <row r="25">
@@ -782,10 +782,10 @@
         </is>
       </c>
       <c r="B27" t="n">
-        <v>0.001000704480189036</v>
+        <v>0.001000704873347741</v>
       </c>
       <c r="C27" t="n">
-        <v>0.0002465623751987243</v>
+        <v>0.0002465634870941096</v>
       </c>
     </row>
     <row r="28">
@@ -808,10 +808,10 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>0.001424263061145577</v>
+        <v>0.001424261351124213</v>
       </c>
       <c r="C29" t="n">
-        <v>0.0002638551557026518</v>
+        <v>0.0002638562768277243</v>
       </c>
     </row>
     <row r="30">
@@ -821,10 +821,10 @@
         </is>
       </c>
       <c r="B30" t="n">
-        <v>0.001894873062647172</v>
+        <v>0.001894873530529465</v>
       </c>
       <c r="C30" t="n">
-        <v>0.0005145457210963086</v>
+        <v>0.000514546936844866</v>
       </c>
     </row>
     <row r="31">
@@ -834,10 +834,10 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>0.0005937376049807588</v>
+        <v>0.0005937377145825442</v>
       </c>
       <c r="C31" t="n">
-        <v>0.0005494582061977875</v>
+        <v>0.0005494584153039738</v>
       </c>
     </row>
     <row r="32">
@@ -860,10 +860,10 @@
         </is>
       </c>
       <c r="B33" t="n">
-        <v>0.00169081485626156</v>
+        <v>0.001690814678876192</v>
       </c>
       <c r="C33" t="n">
-        <v>0.000604266820927395</v>
+        <v>0.0006042654669548398</v>
       </c>
     </row>
     <row r="34">
@@ -873,10 +873,10 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>0.001314378569295074</v>
+        <v>0.001314377332831648</v>
       </c>
       <c r="C34" t="n">
-        <v>0.0002610041822566004</v>
+        <v>0.0002610044563973783</v>
       </c>
     </row>
     <row r="35">
@@ -912,10 +912,10 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>0.0007842420845790778</v>
+        <v>0.0007842429755685265</v>
       </c>
       <c r="C37" t="n">
-        <v>0.0001762900285627821</v>
+        <v>0.0001762895872500151</v>
       </c>
     </row>
     <row r="38">
@@ -925,10 +925,10 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>0.0007393827821678647</v>
+        <v>0.0007393850219756604</v>
       </c>
       <c r="C38" t="n">
-        <v>0.0002371016388306028</v>
+        <v>0.0002371015617992498</v>
       </c>
     </row>
     <row r="39">
@@ -938,10 +938,10 @@
         </is>
       </c>
       <c r="B39" t="n">
-        <v>0.001530855069970332</v>
+        <v>0.001530851686953008</v>
       </c>
       <c r="C39" t="n">
-        <v>0.000284365456545301</v>
+        <v>0.0002843655950373925</v>
       </c>
     </row>
     <row r="40">
@@ -951,10 +951,10 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>0.000842256324641236</v>
+        <v>0.0008422560801025979</v>
       </c>
       <c r="C40" t="n">
-        <v>0.0001654459502616318</v>
+        <v>0.0001654458931218229</v>
       </c>
     </row>
     <row r="41">
@@ -964,10 +964,10 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>0.001435790099550612</v>
+        <v>0.001435790602749374</v>
       </c>
       <c r="C41" t="n">
-        <v>0.0002541677978398323</v>
+        <v>0.0002541677073462823</v>
       </c>
     </row>
     <row r="42">
@@ -977,10 +977,10 @@
         </is>
       </c>
       <c r="B42" t="n">
-        <v>0.001099211779945579</v>
+        <v>0.001099213332814677</v>
       </c>
       <c r="C42" t="n">
-        <v>0.0001990675472940608</v>
+        <v>0.0001990689199006978</v>
       </c>
     </row>
     <row r="43">
@@ -1003,10 +1003,10 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>0.0006981536675808673</v>
+        <v>0.0006981545323204765</v>
       </c>
       <c r="C44" t="n">
-        <v>0.0003375212445890138</v>
+        <v>0.0003375209144886727</v>
       </c>
     </row>
     <row r="45">
@@ -1016,10 +1016,10 @@
         </is>
       </c>
       <c r="B45" t="n">
-        <v>0.001325893948998274</v>
+        <v>0.001325897103086899</v>
       </c>
       <c r="C45" t="n">
-        <v>0.0006030848188436064</v>
+        <v>0.0006030839141308234</v>
       </c>
     </row>
     <row r="46">
@@ -1055,10 +1055,10 @@
         </is>
       </c>
       <c r="B48" t="n">
-        <v>0.001001692569308013</v>
+        <v>0.001001692979017388</v>
       </c>
       <c r="C48" t="n">
-        <v>0.0002214390720581215</v>
+        <v>0.0002214381520231295</v>
       </c>
     </row>
     <row r="49">
